--- a/Phase1.xlsx
+++ b/Phase1.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nigel/Library/Mobile Documents/com~apple~CloudDocs/2022 Spring/MLLU/Project/MLLU-Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F37CEF0-B96F-FF43-9692-16DD92D16072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A975BA-155A-A141-BBAC-524C61404423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{3FCBC4D1-DD44-2442-A0EE-F1F605741859}"/>
+    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{3FCBC4D1-DD44-2442-A0EE-F1F605741859}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="resultF1" sheetId="1" r:id="rId1"/>
+    <sheet name="resultEM" sheetId="2" r:id="rId2"/>
+    <sheet name="resultAvg" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="10">
   <si>
     <t>Tuning Method</t>
   </si>
@@ -74,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,6 +104,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,6 +167,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -478,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F378A5-4896-904B-9A6F-3C0FBE0D74E6}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,4 +855,730 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD85832E-E5DC-AC40-8559-88C87A5AD408}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="C1" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D1" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E1" s="12">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14">
+        <v>68.12</v>
+      </c>
+      <c r="C2" s="14">
+        <v>77.180000000000007</v>
+      </c>
+      <c r="D2" s="14">
+        <v>82.55</v>
+      </c>
+      <c r="E2" s="14">
+        <v>87.41</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15">
+        <v>66.72</v>
+      </c>
+      <c r="C3" s="15">
+        <v>77.44</v>
+      </c>
+      <c r="D3" s="15">
+        <v>83.11</v>
+      </c>
+      <c r="E3" s="15">
+        <v>87.18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="15">
+        <v>56.78</v>
+      </c>
+      <c r="C4" s="15">
+        <v>74.12</v>
+      </c>
+      <c r="D4" s="15">
+        <v>81.040000000000006</v>
+      </c>
+      <c r="E4" s="15">
+        <v>84.34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15">
+        <v>62.62</v>
+      </c>
+      <c r="C5" s="15">
+        <v>73.98</v>
+      </c>
+      <c r="D5" s="15">
+        <v>80.650000000000006</v>
+      </c>
+      <c r="E5" s="15">
+        <v>84.81</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14">
+        <v>26.76</v>
+      </c>
+      <c r="C6" s="14">
+        <v>40.72</v>
+      </c>
+      <c r="D6" s="14">
+        <v>57.15</v>
+      </c>
+      <c r="E6" s="14">
+        <v>74.09</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15">
+        <v>26.21</v>
+      </c>
+      <c r="C7" s="15">
+        <v>35.520000000000003</v>
+      </c>
+      <c r="D7" s="15">
+        <v>54.68</v>
+      </c>
+      <c r="E7" s="15">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15">
+        <v>26.29</v>
+      </c>
+      <c r="C8" s="15">
+        <v>35.58</v>
+      </c>
+      <c r="D8" s="15">
+        <v>52.12</v>
+      </c>
+      <c r="E8" s="15">
+        <v>62.12</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15">
+        <v>25.82</v>
+      </c>
+      <c r="C9" s="15">
+        <v>31.18</v>
+      </c>
+      <c r="D9" s="15">
+        <v>53.53</v>
+      </c>
+      <c r="E9" s="15">
+        <v>69.14</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="14">
+        <v>25.43</v>
+      </c>
+      <c r="C10" s="14">
+        <v>52.37</v>
+      </c>
+      <c r="D10" s="14">
+        <v>63.14</v>
+      </c>
+      <c r="E10" s="14">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="15">
+        <v>30.6</v>
+      </c>
+      <c r="C11" s="15">
+        <v>52.89</v>
+      </c>
+      <c r="D11" s="15">
+        <v>63.65</v>
+      </c>
+      <c r="E11" s="15">
+        <v>68.95</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="15">
+        <v>23.94</v>
+      </c>
+      <c r="C12" s="15">
+        <v>47.91</v>
+      </c>
+      <c r="D12" s="15">
+        <v>60.62</v>
+      </c>
+      <c r="E12" s="15">
+        <v>66.739999999999995</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="15">
+        <v>24.6</v>
+      </c>
+      <c r="C13" s="15">
+        <v>48.55</v>
+      </c>
+      <c r="D13" s="15">
+        <v>61.51</v>
+      </c>
+      <c r="E13" s="15">
+        <v>67.72</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="14">
+        <v>92.78</v>
+      </c>
+      <c r="C14" s="14">
+        <v>94.18</v>
+      </c>
+      <c r="D14" s="14">
+        <v>95.37</v>
+      </c>
+      <c r="E14" s="14">
+        <v>96.47</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="15">
+        <v>92.18</v>
+      </c>
+      <c r="C15" s="15">
+        <v>94.14</v>
+      </c>
+      <c r="D15" s="15">
+        <v>95.4</v>
+      </c>
+      <c r="E15" s="15">
+        <v>96.27</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="15">
+        <v>88.87</v>
+      </c>
+      <c r="C16" s="15">
+        <v>93.47</v>
+      </c>
+      <c r="D16" s="15">
+        <v>95.08</v>
+      </c>
+      <c r="E16" s="15">
+        <v>95.82</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="15">
+        <v>91.81</v>
+      </c>
+      <c r="C17" s="15">
+        <v>93.61</v>
+      </c>
+      <c r="D17" s="15">
+        <v>94.87</v>
+      </c>
+      <c r="E17" s="15">
+        <v>95.99</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323E67C-58D7-2441-B519-C6FFD1ACC81F}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="C1" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D1" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E1" s="12">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14">
+        <v>68.12</v>
+      </c>
+      <c r="C2" s="14">
+        <v>77.180000000000007</v>
+      </c>
+      <c r="D2" s="14">
+        <v>82.55</v>
+      </c>
+      <c r="E2" s="14">
+        <v>87.41</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15">
+        <v>66.72</v>
+      </c>
+      <c r="C3" s="15">
+        <v>77.44</v>
+      </c>
+      <c r="D3" s="15">
+        <v>83.11</v>
+      </c>
+      <c r="E3" s="15">
+        <v>87.18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="15">
+        <v>56.78</v>
+      </c>
+      <c r="C4" s="15">
+        <v>74.12</v>
+      </c>
+      <c r="D4" s="15">
+        <v>81.040000000000006</v>
+      </c>
+      <c r="E4" s="15">
+        <v>84.34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15">
+        <v>62.62</v>
+      </c>
+      <c r="C5" s="15">
+        <v>73.98</v>
+      </c>
+      <c r="D5" s="15">
+        <v>80.650000000000006</v>
+      </c>
+      <c r="E5" s="15">
+        <v>84.81</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14">
+        <v>26.76</v>
+      </c>
+      <c r="C6" s="14">
+        <v>40.72</v>
+      </c>
+      <c r="D6" s="14">
+        <v>57.15</v>
+      </c>
+      <c r="E6" s="14">
+        <v>74.09</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15">
+        <v>26.21</v>
+      </c>
+      <c r="C7" s="15">
+        <v>35.520000000000003</v>
+      </c>
+      <c r="D7" s="15">
+        <v>54.68</v>
+      </c>
+      <c r="E7" s="15">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15">
+        <v>26.29</v>
+      </c>
+      <c r="C8" s="15">
+        <v>35.58</v>
+      </c>
+      <c r="D8" s="15">
+        <v>52.12</v>
+      </c>
+      <c r="E8" s="15">
+        <v>62.12</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15">
+        <v>25.82</v>
+      </c>
+      <c r="C9" s="15">
+        <v>31.18</v>
+      </c>
+      <c r="D9" s="15">
+        <v>53.53</v>
+      </c>
+      <c r="E9" s="15">
+        <v>69.14</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="14">
+        <v>31.895</v>
+      </c>
+      <c r="C10" s="14">
+        <v>59.929999999999993</v>
+      </c>
+      <c r="D10" s="14">
+        <v>70.484999999999999</v>
+      </c>
+      <c r="E10" s="14">
+        <v>76.84</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="15">
+        <v>36.585000000000001</v>
+      </c>
+      <c r="C11" s="15">
+        <v>60.83</v>
+      </c>
+      <c r="D11" s="15">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="E11" s="15">
+        <v>75.930000000000007</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="15">
+        <v>29.774999999999999</v>
+      </c>
+      <c r="C12" s="15">
+        <v>55.78</v>
+      </c>
+      <c r="D12" s="15">
+        <v>67.974999999999994</v>
+      </c>
+      <c r="E12" s="15">
+        <v>73.754999999999995</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="15">
+        <v>30.555</v>
+      </c>
+      <c r="C13" s="15">
+        <v>56.28</v>
+      </c>
+      <c r="D13" s="15">
+        <v>68.77</v>
+      </c>
+      <c r="E13" s="15">
+        <v>74.85499999999999</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="14">
+        <v>92.78</v>
+      </c>
+      <c r="C14" s="14">
+        <v>94.18</v>
+      </c>
+      <c r="D14" s="14">
+        <v>95.37</v>
+      </c>
+      <c r="E14" s="14">
+        <v>96.47</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="15">
+        <v>92.18</v>
+      </c>
+      <c r="C15" s="15">
+        <v>94.14</v>
+      </c>
+      <c r="D15" s="15">
+        <v>95.4</v>
+      </c>
+      <c r="E15" s="15">
+        <v>96.27</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="15">
+        <v>88.87</v>
+      </c>
+      <c r="C16" s="15">
+        <v>93.47</v>
+      </c>
+      <c r="D16" s="15">
+        <v>95.08</v>
+      </c>
+      <c r="E16" s="15">
+        <v>95.82</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="15">
+        <v>91.81</v>
+      </c>
+      <c r="C17" s="15">
+        <v>93.61</v>
+      </c>
+      <c r="D17" s="15">
+        <v>94.87</v>
+      </c>
+      <c r="E17" s="15">
+        <v>95.99</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>